--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/100RP290_S16_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/100RP290_S16_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B4037-193B-FD46-BFA8-66A7EE0628D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82693E5-AB03-B74F-85FF-2D4503E57F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="100">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -470,12 +470,30 @@
   <si>
     <t>Check time Sealing flow agitator</t>
   </si>
+  <si>
+    <t>02: Dosing time WWT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>005: Use steam dosing</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,8 +557,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +617,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,7 +860,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,6 +896,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,14 +2366,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Option: Massafra -   | Bergamo - 003: Use steam dosing</v>
+        <v>-- Option: Massafra -  005: Use steam dosing | Bergamo - 003: Use steam dosing</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Option Comparison'!$K$3="NULL","",IF(ISBLANK('01 Option Comparison'!$K$3),"",'01 Option Comparison'!$K$3))</f>
-        <v/>
+        <v>005: Use steam dosing</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -4858,14 +4897,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 04: Dosing time WWT</v>
+        <v>-- Function: Massafra -  02: Dosing time WWT | Bergamo - 04: Dosing time WWT</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>02: Dosing time WWT</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -10553,7 +10592,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10576,28 +10615,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10672,6 +10711,12 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J3" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" s="11" t="str">
         <f>'00 Value Source'!H1</f>
         <v>NULL</v>
@@ -10713,6 +10758,12 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
@@ -16407,8 +16458,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L8" sqref="J3:L8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16431,28 +16482,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16527,7 +16578,12 @@
       <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="J3" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="11" t="str">
         <f>'00 Option Source'!H1</f>
         <v>NULL</v>
@@ -22743,8 +22799,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22767,28 +22823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -22913,6 +22969,12 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="N4" s="11" t="str">
         <f>'00 Function Source'!H2</f>
@@ -29495,7 +29557,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -29523,32 +29585,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="R1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -34740,14 +34802,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 010: MES: Mean mashing T°C</v>
+        <v>-- Value: Massafra -  010: MES: Mean mashing T°C | Bergamo - 010: MES: Mean mashing T°C</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>010: MES: Mean mashing T°C</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -34813,14 +34875,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: MES: Volume Mash MC (mais)</v>
+        <v>-- Value: Massafra -  014: MES: Volume Mash MC (mais) | Bergamo - 014: MES: Volume Mash MC (mais)</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>014: MES: Volume Mash MC (mais)</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>

--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/100RP290_S16_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/100RP290_S16_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 16 - Mash Copper 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82693E5-AB03-B74F-85FF-2D4503E57F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4044167-1E3E-2E42-B889-E802E015AC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="25560" windowHeight="20540" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -860,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,9 +899,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10591,7 +10591,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
@@ -10615,28 +10615,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10711,10 +10711,10 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="11" t="str">
@@ -10759,10 +10759,10 @@
       <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="11" t="str">
@@ -16458,7 +16458,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -16482,28 +16482,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16578,10 +16578,10 @@
       <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="45" t="s">
         <v>98</v>
       </c>
       <c r="N3" s="11" t="str">
@@ -22823,28 +22823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -22970,10 +22970,10 @@
       <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="45" t="s">
         <v>94</v>
       </c>
       <c r="N4" s="11" t="str">
@@ -29585,32 +29585,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="R1" s="52" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="R1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
